--- a/rewardchest.xlsx
+++ b/rewardchest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\test\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Rare Wooden Chest</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>A Divine Wooden Chest, reward from the Goddess for worthy Dino-Chiefs in the Inferno Lands.</t>
+  </si>
+  <si>
+    <t>bullshit</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,79 +556,127 @@
     <row r="16" spans="1:1">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" ht="28.5">
+    <row r="17" spans="1:17" ht="28.5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="28.5">
+    <row r="18" spans="1:17" ht="28.5">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="28.5">
+    <row r="19" spans="1:17" ht="28.5">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="28.5">
+    <row r="20" spans="1:17" ht="28.5">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="28.5">
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="28.5">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="28.5">
+      <c r="I21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="28.5">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="28.5">
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="28.5">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="28.5">
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="28.5">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.5">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="28.5">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="28.5">
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="28.5">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="28.5">
+    <row r="27" spans="1:17" ht="28.5">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="28.5">
+    <row r="28" spans="1:17" ht="28.5">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="28.5">
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="28.5">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="28.5">
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="28.5">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="28.5">
+    <row r="31" spans="1:17" ht="28.5">
       <c r="A31" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14">
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14">
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="5:14">
+      <c r="N38" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
